--- a/survey_mean_sd_table.xlsx
+++ b/survey_mean_sd_table.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean</t>
   </si>
   <si>
@@ -26,6 +29,9 @@
     <t xml:space="preserve">p1</t>
   </si>
   <si>
+    <t xml:space="preserve">Performance Expectancy</t>
+  </si>
+  <si>
     <t xml:space="preserve">p2</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
     <t xml:space="preserve">e1</t>
   </si>
   <si>
+    <t xml:space="preserve">Effort Expectancy</t>
+  </si>
+  <si>
     <t xml:space="preserve">e2</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
     <t xml:space="preserve">s1</t>
   </si>
   <si>
+    <t xml:space="preserve">Social Influence</t>
+  </si>
+  <si>
     <t xml:space="preserve">s2</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitating Conditions</t>
   </si>
   <si>
     <t xml:space="preserve">f2</t>
@@ -407,169 +422,217 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.68571428571429</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.578425076702401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.75714285714286</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.668888636681453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>1.85714285714286</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.707838397296566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.21428571428571</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.740012869900955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.84285714285714</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.605188060020783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
         <v>2.01428571428571</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.825198388844998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.75714285714286</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.710902962980411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>1.77142857142857</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.705494555108531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
         <v>2.21428571428571</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.882894730752235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
         <v>2.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.853806481145685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.88571428571429</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.790209239266377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.87142857142857</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.75988993427688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.87142857142857</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.778728591655461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.68571428571429</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.713083875036057</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.9</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.725318520735366</v>
       </c>
     </row>
